--- a/docs/system_analysis.xlsx
+++ b/docs/system_analysis.xlsx
@@ -1,8 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836FBCDC-A160-4EEB-88A9-DD98BB9A8D30}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +37,6 @@
     <t>Особа або група осіб які є ініціаторами проекту. Це особи з якими в першу чергу потрібно буде обговорювати бізнессторону проекту.</t>
   </si>
   <si>
-    <t>Анастасія Лівочка, Юлія Клебан</t>
-  </si>
-  <si>
     <t>Бізнес потреба (Business Need)</t>
   </si>
   <si>
@@ -57,9 +55,6 @@
     <t>Вигоди, які буде набуто після створення системи</t>
   </si>
   <si>
-    <t>Вигоди кожного окремого юзера - opportunity cost інакшого рішення</t>
-  </si>
-  <si>
     <t>Питання та обмеження (Special Issues or Constraints )</t>
   </si>
   <si>
@@ -69,10 +64,16 @@
     <t xml:space="preserve">Граничний термін розробки – 25 травня. Команда розробників повинна отримати вищий рівень доступу для роботи з даними. </t>
   </si>
   <si>
-    <t>Покращити доступ до інформації, допомогти юзеру приймати економічно компетентні рішення</t>
-  </si>
-  <si>
-    <t>Прогноз інфляції, купівельної спроможності гривні. Обгрунтована порада в якій валюті краще зберігати заощадження</t>
+    <t>Анастасія Лівочка</t>
+  </si>
+  <si>
+    <t>Покращити доступ до інформації, допомогти юзеру приймати економічно компетентні рішення, порівняти реальний та номінальний курс</t>
+  </si>
+  <si>
+    <t>Візуалізація реального та номінального курса долара у проміжку 2008-2017 рр., візуалізація зміни індексу купівельної спроможності</t>
+  </si>
+  <si>
+    <t>Розуміння відмінності реального курсу від номінального, бо саме реальний курс є індикатором для міжнародної торгівлі</t>
   </si>
 </sst>
 </file>
@@ -425,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,51 +457,51 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="2" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
